--- a/UAS_Sightings_report_1Feb-31Mar16.xlsx
+++ b/UAS_Sightings_report_1Feb-31Mar16.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcgar\Documents\DATA_SCIENCE\AmericanU\AU_drones_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08969FF-2427-449D-A483-5313D98B73B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="-165" windowWidth="13620" windowHeight="9525"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feb1mar31" sheetId="8" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="437">
   <si>
     <t>Colorado</t>
   </si>
@@ -2846,11 +2852,17 @@
 Summary: A/C, REPORT WHITE QUAD DRONE WHILE AIRCARFT WAS ON 8 MILE FINAL INBOUND TO ISM, DRONE WAS ESTIMATED AT ABOVE 400 FT TO APPROXIMATELY 2,000 FT. PILOT UNABLE TO DETERMINE DIRECTION OF FLIGHT OF DRONE. OSCEOLA COUNTY SHERIFF'S OFFICE NOTIFIED.
 </t>
   </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -3444,7 +3456,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -3470,6 +3482,104 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3519,39 +3629,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3586,38 +3663,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3647,39 +3692,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3814,18 +3826,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table246" displayName="Table246" ref="A1:D297" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" totalsRowDxfId="9" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:D296"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table246" displayName="Table246" ref="A1:D297" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" totalsRowDxfId="9" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:D296" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="Event DATETIME" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Description" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Location CITY" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Location STATE" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Event DATETIME" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Location CITY" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Location STATE" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3874,7 +3889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3907,9 +3922,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3942,6 +3974,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4117,17 +4166,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
     <col min="5" max="16384" width="16" style="3"/>
@@ -4147,7 +4196,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="87">
       <c r="A2" s="7">
         <v>42401.000694444447</v>
       </c>
@@ -4161,7 +4210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="270">
+    <row r="3" spans="1:4" ht="261">
       <c r="A3" s="7">
         <v>42401.020833333336</v>
       </c>
@@ -4175,7 +4224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="135">
+    <row r="4" spans="1:4" ht="130.5">
       <c r="A4" s="1">
         <v>42401.339155092603</v>
       </c>
@@ -4189,7 +4238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="315">
+    <row r="5" spans="1:4" ht="304.5">
       <c r="A5" s="1">
         <v>42401.551122685203</v>
       </c>
@@ -4203,7 +4252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="120">
+    <row r="6" spans="1:4" ht="101.5">
       <c r="A6" s="1">
         <v>42401.994236111103</v>
       </c>
@@ -4217,7 +4266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="255">
+    <row r="7" spans="1:4" ht="246.5">
       <c r="A7" s="7">
         <v>42402.024305555555</v>
       </c>
@@ -4231,7 +4280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="345">
+    <row r="8" spans="1:4" ht="319">
       <c r="A8" s="1">
         <v>42403.42083333333</v>
       </c>
@@ -4245,7 +4294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="150">
+    <row r="9" spans="1:4" ht="145">
       <c r="A9" s="1">
         <v>42403.638113425899</v>
       </c>
@@ -4259,7 +4308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="240">
+    <row r="10" spans="1:4" ht="232">
       <c r="A10" s="1">
         <v>42403.718055555553</v>
       </c>
@@ -4273,7 +4322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="135">
+    <row r="11" spans="1:4" ht="130.5">
       <c r="A11" s="1">
         <v>42404.055555555555</v>
       </c>
@@ -4287,7 +4336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="300">
+    <row r="12" spans="1:4" ht="290">
       <c r="A12" s="1">
         <v>42404.463888888888</v>
       </c>
@@ -4301,7 +4350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="240">
+    <row r="13" spans="1:4" ht="232">
       <c r="A13" s="1">
         <v>42404.552083333336</v>
       </c>
@@ -4315,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="240">
+    <row r="14" spans="1:4" ht="217.5">
       <c r="A14" s="1">
         <v>42404.689583333333</v>
       </c>
@@ -4329,7 +4378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="225">
+    <row r="15" spans="1:4" ht="217.5">
       <c r="A15" s="1">
         <v>42404.787499999999</v>
       </c>
@@ -4343,7 +4392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="255">
+    <row r="16" spans="1:4" ht="232">
       <c r="A16" s="1">
         <v>42404.879861111112</v>
       </c>
@@ -4357,7 +4406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="255">
+    <row r="17" spans="1:4" ht="246.5">
       <c r="A17" s="1">
         <v>42405.381944444445</v>
       </c>
@@ -4371,7 +4420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="270">
+    <row r="18" spans="1:4" ht="246.5">
       <c r="A18" s="1">
         <v>42405.580555555556</v>
       </c>
@@ -4385,7 +4434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="409.5">
+    <row r="19" spans="1:4" ht="391.5">
       <c r="A19" s="1">
         <v>42405.758333333331</v>
       </c>
@@ -4399,7 +4448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="240">
+    <row r="20" spans="1:4" ht="203">
       <c r="A20" s="1">
         <v>42406.006944444445</v>
       </c>
@@ -4413,7 +4462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="180">
+    <row r="21" spans="1:4" ht="174">
       <c r="A21" s="1">
         <v>42406.049305555556</v>
       </c>
@@ -4427,7 +4476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="210">
+    <row r="22" spans="1:4" ht="203">
       <c r="A22" s="1">
         <v>42406.979861111111</v>
       </c>
@@ -4441,7 +4490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="330">
+    <row r="23" spans="1:4" ht="290">
       <c r="A23" s="1">
         <v>42407.347222222219</v>
       </c>
@@ -4455,7 +4504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="195">
+    <row r="24" spans="1:4" ht="174">
       <c r="A24" s="1">
         <v>42407.640023148197</v>
       </c>
@@ -4469,7 +4518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="270">
+    <row r="25" spans="1:4" ht="246.5">
       <c r="A25" s="1">
         <v>42407.663506944496</v>
       </c>
@@ -4483,7 +4532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="210">
+    <row r="26" spans="1:4" ht="188.5">
       <c r="A26" s="1">
         <v>42407.864537037</v>
       </c>
@@ -4497,7 +4546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="58">
       <c r="A27" s="7">
         <v>42408</v>
       </c>
@@ -4511,7 +4560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60">
+    <row r="28" spans="1:4" ht="58">
       <c r="A28" s="7">
         <v>42408</v>
       </c>
@@ -4525,7 +4574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="225">
+    <row r="29" spans="1:4" ht="217.5">
       <c r="A29" s="1">
         <v>42408.451608796298</v>
       </c>
@@ -4539,7 +4588,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="255">
+    <row r="30" spans="1:4" ht="232">
       <c r="A30" s="1">
         <v>42408.706574074102</v>
       </c>
@@ -4553,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="150">
+    <row r="31" spans="1:4" ht="145">
       <c r="A31" s="1">
         <v>42409.561944444496</v>
       </c>
@@ -4567,7 +4616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="240">
+    <row r="32" spans="1:4" ht="232">
       <c r="A32" s="1">
         <v>42409.749918981499</v>
       </c>
@@ -4581,7 +4630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="255">
+    <row r="33" spans="1:4" ht="246.5">
       <c r="A33" s="1">
         <v>42410.304618055598</v>
       </c>
@@ -4595,7 +4644,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="270">
+    <row r="34" spans="1:4" ht="232">
       <c r="A34" s="1">
         <v>42410.466388888897</v>
       </c>
@@ -4609,7 +4658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="285">
+    <row r="35" spans="1:4" ht="261">
       <c r="A35" s="1">
         <v>42410.8280787037</v>
       </c>
@@ -4623,7 +4672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="285">
+    <row r="36" spans="1:4" ht="261">
       <c r="A36" s="1">
         <v>42410.877141203702</v>
       </c>
@@ -4637,7 +4686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="270">
+    <row r="37" spans="1:4" ht="246.5">
       <c r="A37" s="1">
         <v>42411.6691319444</v>
       </c>
@@ -4651,7 +4700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="120">
+    <row r="38" spans="1:4" ht="116">
       <c r="A38" s="1">
         <v>42411.737152777801</v>
       </c>
@@ -4665,7 +4714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="240">
+    <row r="39" spans="1:4" ht="232">
       <c r="A39" s="1">
         <v>42411.949756944399</v>
       </c>
@@ -4679,7 +4728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="240">
+    <row r="40" spans="1:4" ht="217.5">
       <c r="A40" s="1">
         <v>42412.474108796298</v>
       </c>
@@ -4693,7 +4742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="225">
+    <row r="41" spans="1:4" ht="203">
       <c r="A41" s="1">
         <v>42412.539131944497</v>
       </c>
@@ -4707,7 +4756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="135">
+    <row r="42" spans="1:4" ht="130.5">
       <c r="A42" s="1">
         <v>42412.547303240703</v>
       </c>
@@ -4721,7 +4770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="135">
+    <row r="43" spans="1:4" ht="130.5">
       <c r="A43" s="1">
         <v>42412.660671296297</v>
       </c>
@@ -4735,7 +4784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="120">
+    <row r="44" spans="1:4" ht="116">
       <c r="A44" s="1">
         <v>42412.675937499997</v>
       </c>
@@ -4749,7 +4798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="135">
+    <row r="45" spans="1:4" ht="130.5">
       <c r="A45" s="1">
         <v>42412.682291666701</v>
       </c>
@@ -4763,7 +4812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="240">
+    <row r="46" spans="1:4" ht="232">
       <c r="A46" s="1">
         <v>42413.361469907402</v>
       </c>
@@ -4777,7 +4826,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="210">
+    <row r="47" spans="1:4" ht="203">
       <c r="A47" s="1">
         <v>42413.5299884259</v>
       </c>
@@ -4791,7 +4840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="210">
+    <row r="48" spans="1:4" ht="203">
       <c r="A48" s="1">
         <v>42413.531018518501</v>
       </c>
@@ -4805,7 +4854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="150">
+    <row r="49" spans="1:4" ht="145">
       <c r="A49" s="1">
         <v>42413.600775462997</v>
       </c>
@@ -4819,7 +4868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="225">
+    <row r="50" spans="1:4" ht="203">
       <c r="A50" s="1">
         <v>42413.6850694444</v>
       </c>
@@ -4833,7 +4882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="285">
+    <row r="51" spans="1:4" ht="275.5">
       <c r="A51" s="1">
         <v>42413.759398148199</v>
       </c>
@@ -4847,7 +4896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="195">
+    <row r="52" spans="1:4" ht="188.5">
       <c r="A52" s="1">
         <v>42413.826134259303</v>
       </c>
@@ -4861,7 +4910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="120">
+    <row r="53" spans="1:4" ht="116">
       <c r="A53" s="1">
         <v>42414.014687499999</v>
       </c>
@@ -4875,7 +4924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="195">
+    <row r="54" spans="1:4" ht="188.5">
       <c r="A54" s="1">
         <v>42414.5140046296</v>
       </c>
@@ -4889,7 +4938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="105">
+    <row r="55" spans="1:4" ht="101.5">
       <c r="A55" s="1">
         <v>42414.577395833301</v>
       </c>
@@ -4903,7 +4952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="120">
+    <row r="56" spans="1:4" ht="116">
       <c r="A56" s="1">
         <v>42414.664722222202</v>
       </c>
@@ -4917,7 +4966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="225">
+    <row r="57" spans="1:4" ht="217.5">
       <c r="A57" s="1">
         <v>42414.674467592602</v>
       </c>
@@ -4931,7 +4980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="210">
+    <row r="58" spans="1:4" ht="203">
       <c r="A58" s="1">
         <v>42414.713078703702</v>
       </c>
@@ -4945,7 +4994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="180">
+    <row r="59" spans="1:4" ht="174">
       <c r="A59" s="1">
         <v>42414.824699074103</v>
       </c>
@@ -4959,7 +5008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="120">
+    <row r="60" spans="1:4" ht="116">
       <c r="A60" s="1">
         <v>42415.405509259297</v>
       </c>
@@ -4973,7 +5022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="225">
+    <row r="61" spans="1:4" ht="203">
       <c r="A61" s="1">
         <v>42415.685312499998</v>
       </c>
@@ -4987,7 +5036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="195">
+    <row r="62" spans="1:4" ht="174">
       <c r="A62" s="1">
         <v>42415.708726851903</v>
       </c>
@@ -5001,7 +5050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="240">
+    <row r="63" spans="1:4" ht="203">
       <c r="A63" s="1">
         <v>42415.758043981499</v>
       </c>
@@ -5015,7 +5064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="135">
+    <row r="64" spans="1:4" ht="130.5">
       <c r="A64" s="1">
         <v>42415.921944444497</v>
       </c>
@@ -5029,7 +5078,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="210">
+    <row r="65" spans="1:4" ht="203">
       <c r="A65" s="1">
         <v>42416.443634259304</v>
       </c>
@@ -5043,7 +5092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="315">
+    <row r="66" spans="1:4" ht="304.5">
       <c r="A66" s="1">
         <v>42416.651678240698</v>
       </c>
@@ -5057,7 +5106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="195">
+    <row r="67" spans="1:4" ht="188.5">
       <c r="A67" s="1">
         <v>42416.758252314801</v>
       </c>
@@ -5071,7 +5120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="180">
+    <row r="68" spans="1:4" ht="159.5">
       <c r="A68" s="1">
         <v>42416.768877314797</v>
       </c>
@@ -5085,7 +5134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="195">
+    <row r="69" spans="1:4" ht="188.5">
       <c r="A69" s="1">
         <v>42416.770370370403</v>
       </c>
@@ -5099,7 +5148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="195">
+    <row r="70" spans="1:4" ht="188.5">
       <c r="A70" s="1">
         <v>42416.874351851897</v>
       </c>
@@ -5113,7 +5162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="180">
+    <row r="71" spans="1:4" ht="174">
       <c r="A71" s="1">
         <v>42416.939560185201</v>
       </c>
@@ -5127,7 +5176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="120">
+    <row r="72" spans="1:4" ht="116">
       <c r="A72" s="1">
         <v>42417.239317129599</v>
       </c>
@@ -5141,7 +5190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="195">
+    <row r="73" spans="1:4" ht="188.5">
       <c r="A73" s="1">
         <v>42417.488090277802</v>
       </c>
@@ -5155,7 +5204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="210">
+    <row r="74" spans="1:4" ht="188.5">
       <c r="A74" s="1">
         <v>42417.7510763889</v>
       </c>
@@ -5169,7 +5218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="120">
+    <row r="75" spans="1:4" ht="116">
       <c r="A75" s="1">
         <v>42417.808518518497</v>
       </c>
@@ -5183,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="120">
+    <row r="76" spans="1:4" ht="116">
       <c r="A76" s="1">
         <v>42419.652812499997</v>
       </c>
@@ -5197,7 +5246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="300">
+    <row r="77" spans="1:4" ht="275.5">
       <c r="A77" s="1">
         <v>42419.687835648103</v>
       </c>
@@ -5211,7 +5260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="240">
+    <row r="78" spans="1:4" ht="232">
       <c r="A78" s="1">
         <v>42419.773194444402</v>
       </c>
@@ -5225,7 +5274,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="150">
+    <row r="79" spans="1:4" ht="145">
       <c r="A79" s="1">
         <v>42419.786215277803</v>
       </c>
@@ -5239,7 +5288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="210">
+    <row r="80" spans="1:4" ht="203">
       <c r="A80" s="1">
         <v>42419.984502314801</v>
       </c>
@@ -5253,7 +5302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="120">
+    <row r="81" spans="1:4" ht="116">
       <c r="A81" s="1">
         <v>42420.543206018498</v>
       </c>
@@ -5267,7 +5316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="195">
+    <row r="82" spans="1:4" ht="188.5">
       <c r="A82" s="1">
         <v>42420.549467592602</v>
       </c>
@@ -5281,7 +5330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="180">
+    <row r="83" spans="1:4" ht="174">
       <c r="A83" s="1">
         <v>42420.568287037</v>
       </c>
@@ -5295,7 +5344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="225">
+    <row r="84" spans="1:4" ht="217.5">
       <c r="A84" s="1">
         <v>42420.596967592603</v>
       </c>
@@ -5309,7 +5358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="210">
+    <row r="85" spans="1:4" ht="188.5">
       <c r="A85" s="1">
         <v>42420.840578703697</v>
       </c>
@@ -5323,7 +5372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="150">
+    <row r="86" spans="1:4" ht="145">
       <c r="A86" s="1">
         <v>42421.045138888891</v>
       </c>
@@ -5337,7 +5386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="240">
+    <row r="87" spans="1:4" ht="203">
       <c r="A87" s="1">
         <v>42421.436550925901</v>
       </c>
@@ -5351,7 +5400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="195">
+    <row r="88" spans="1:4" ht="174">
       <c r="A88" s="1">
         <v>42421.743032407401</v>
       </c>
@@ -5365,7 +5414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="105">
+    <row r="89" spans="1:4" ht="87">
       <c r="A89" s="1">
         <v>42421.801168981503</v>
       </c>
@@ -5379,7 +5428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="150">
+    <row r="90" spans="1:4" ht="145">
       <c r="A90" s="1">
         <v>42421.899594907401</v>
       </c>
@@ -5393,7 +5442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="120">
+    <row r="91" spans="1:4" ht="116">
       <c r="A91" s="1">
         <v>42421.933587963002</v>
       </c>
@@ -5407,7 +5456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="195">
+    <row r="92" spans="1:4" ht="188.5">
       <c r="A92" s="1">
         <v>42422.406145833302</v>
       </c>
@@ -5421,7 +5470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="135">
+    <row r="93" spans="1:4" ht="116">
       <c r="A93" s="1">
         <v>42422.474502314799</v>
       </c>
@@ -5435,7 +5484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="255">
+    <row r="94" spans="1:4" ht="232">
       <c r="A94" s="1">
         <v>42422.5133333333</v>
       </c>
@@ -5449,7 +5498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="240">
+    <row r="95" spans="1:4" ht="232">
       <c r="A95" s="1">
         <v>42422.6315046296</v>
       </c>
@@ -5463,7 +5512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="180">
+    <row r="96" spans="1:4" ht="174">
       <c r="A96" s="1">
         <v>42422.749398148197</v>
       </c>
@@ -5477,7 +5526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="195">
+    <row r="97" spans="1:4" ht="188.5">
       <c r="A97" s="1">
         <v>42423.381944444445</v>
       </c>
@@ -5491,7 +5540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="105">
+    <row r="98" spans="1:4" ht="101.5">
       <c r="A98" s="1">
         <v>42423.578726851803</v>
       </c>
@@ -5505,7 +5554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="315">
+    <row r="99" spans="1:4" ht="304.5">
       <c r="A99" s="1">
         <v>42423.806296296301</v>
       </c>
@@ -5519,7 +5568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="345">
+    <row r="100" spans="1:4" ht="333.5">
       <c r="A100" s="1">
         <v>42424</v>
       </c>
@@ -5533,7 +5582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="225">
+    <row r="101" spans="1:4" ht="217.5">
       <c r="A101" s="1">
         <v>42426.010416666664</v>
       </c>
@@ -5547,7 +5596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="270">
+    <row r="102" spans="1:4" ht="232">
       <c r="A102" s="1">
         <v>42426.59652777778</v>
       </c>
@@ -5561,7 +5610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="225">
+    <row r="103" spans="1:4" ht="217.5">
       <c r="A103" s="1">
         <v>42426.626388888886</v>
       </c>
@@ -5575,7 +5624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="270">
+    <row r="104" spans="1:4" ht="261">
       <c r="A104" s="1">
         <v>42426.71875</v>
       </c>
@@ -5589,7 +5638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="225">
+    <row r="105" spans="1:4" ht="203">
       <c r="A105" s="1">
         <v>42426.720833333333</v>
       </c>
@@ -5603,7 +5652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="165">
+    <row r="106" spans="1:4" ht="145">
       <c r="A106" s="1">
         <v>42426.770833333336</v>
       </c>
@@ -5617,7 +5666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="225">
+    <row r="107" spans="1:4" ht="217.5">
       <c r="A107" s="1">
         <v>42427.399305555555</v>
       </c>
@@ -5631,7 +5680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="330">
+    <row r="108" spans="1:4" ht="319">
       <c r="A108" s="1">
         <v>42427.436805555553</v>
       </c>
@@ -5645,7 +5694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="240">
+    <row r="109" spans="1:4" ht="217.5">
       <c r="A109" s="1">
         <v>42427.567361111112</v>
       </c>
@@ -5659,7 +5708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="210">
+    <row r="110" spans="1:4" ht="188.5">
       <c r="A110" s="1">
         <v>42427.620138888888</v>
       </c>
@@ -5673,7 +5722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="255">
+    <row r="111" spans="1:4" ht="232">
       <c r="A111" s="1">
         <v>42427.692361111112</v>
       </c>
@@ -5687,7 +5736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="225">
+    <row r="112" spans="1:4" ht="188.5">
       <c r="A112" s="1">
         <v>42427.708333333336</v>
       </c>
@@ -5701,7 +5750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="270">
+    <row r="113" spans="1:4" ht="232">
       <c r="A113" s="1">
         <v>42427.751388888886</v>
       </c>
@@ -5715,7 +5764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="210">
+    <row r="114" spans="1:4" ht="174">
       <c r="A114" s="1">
         <v>42428</v>
       </c>
@@ -5729,7 +5778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="225">
+    <row r="115" spans="1:4" ht="217.5">
       <c r="A115" s="1">
         <v>42428.013194444444</v>
       </c>
@@ -5743,7 +5792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="195">
+    <row r="116" spans="1:4" ht="188.5">
       <c r="A116" s="1">
         <v>42428.033333333333</v>
       </c>
@@ -5757,7 +5806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="240">
+    <row r="117" spans="1:4" ht="232">
       <c r="A117" s="1">
         <v>42428.5625</v>
       </c>
@@ -5771,7 +5820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="255">
+    <row r="118" spans="1:4" ht="232">
       <c r="A118" s="1">
         <v>42428.597222222219</v>
       </c>
@@ -5785,7 +5834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="195">
+    <row r="119" spans="1:4" ht="174">
       <c r="A119" s="1">
         <v>42428.679745370398</v>
       </c>
@@ -5799,7 +5848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="225">
+    <row r="120" spans="1:4" ht="217.5">
       <c r="A120" s="1">
         <v>42428.734722222223</v>
       </c>
@@ -5813,7 +5862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="240">
+    <row r="121" spans="1:4" ht="232">
       <c r="A121" s="1">
         <v>42428.790277777778</v>
       </c>
@@ -5827,7 +5876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="255">
+    <row r="122" spans="1:4" ht="246.5">
       <c r="A122" s="1">
         <v>42428.791666666664</v>
       </c>
@@ -5841,7 +5890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="120">
+    <row r="123" spans="1:4" ht="116">
       <c r="A123" s="1">
         <v>42428.827777777777</v>
       </c>
@@ -5855,7 +5904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="255">
+    <row r="124" spans="1:4" ht="246.5">
       <c r="A124" s="1">
         <v>42429.3</v>
       </c>
@@ -5869,7 +5918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="240">
+    <row r="125" spans="1:4" ht="232">
       <c r="A125" s="1">
         <v>42429.368055555555</v>
       </c>
@@ -5883,7 +5932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="210">
+    <row r="126" spans="1:4" ht="203">
       <c r="A126" s="1">
         <v>42429.46875</v>
       </c>
@@ -5897,7 +5946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="255">
+    <row r="127" spans="1:4" ht="232">
       <c r="A127" s="1">
         <v>42429.688229166699</v>
       </c>
@@ -5911,7 +5960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="210">
+    <row r="128" spans="1:4" ht="203">
       <c r="A128" s="1">
         <v>42429.717361111114</v>
       </c>
@@ -5925,7 +5974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="210">
+    <row r="129" spans="1:4" ht="203">
       <c r="A129" s="1">
         <v>42430.447916666664</v>
       </c>
@@ -5939,7 +5988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="240">
+    <row r="130" spans="1:4" ht="203">
       <c r="A130" s="1">
         <v>42430.476099537002</v>
       </c>
@@ -5953,7 +6002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="240">
+    <row r="131" spans="1:4" ht="232">
       <c r="A131" s="1">
         <v>42430.654861111114</v>
       </c>
@@ -5967,7 +6016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="315">
+    <row r="132" spans="1:4" ht="275.5">
       <c r="A132" s="1">
         <v>42430.732638888891</v>
       </c>
@@ -5981,7 +6030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="240">
+    <row r="133" spans="1:4" ht="232">
       <c r="A133" s="1">
         <v>42430.764155092598</v>
       </c>
@@ -5995,7 +6044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="409.5">
+    <row r="134" spans="1:4" ht="391.5">
       <c r="A134" s="1">
         <v>42431.68472222222</v>
       </c>
@@ -6009,7 +6058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="90">
+    <row r="135" spans="1:4" ht="87">
       <c r="A135" s="1">
         <v>42432.581250000003</v>
       </c>
@@ -6023,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="210">
+    <row r="136" spans="1:4" ht="203">
       <c r="A136" s="1">
         <v>42433</v>
       </c>
@@ -6037,7 +6086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="285">
+    <row r="137" spans="1:4" ht="275.5">
       <c r="A137" s="1">
         <v>42433.552777777775</v>
       </c>
@@ -6051,7 +6100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="240">
+    <row r="138" spans="1:4" ht="232">
       <c r="A138" s="1">
         <v>42433.6482986111</v>
       </c>
@@ -6065,7 +6114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="225">
+    <row r="139" spans="1:4" ht="203">
       <c r="A139" s="1">
         <v>42433.711805555555</v>
       </c>
@@ -6079,7 +6128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="210">
+    <row r="140" spans="1:4" ht="203">
       <c r="A140" s="1">
         <v>42433.760416666664</v>
       </c>
@@ -6093,7 +6142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="195">
+    <row r="141" spans="1:4" ht="188.5">
       <c r="A141" s="1">
         <v>42434</v>
       </c>
@@ -6107,7 +6156,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="210">
+    <row r="142" spans="1:4" ht="203">
       <c r="A142" s="1">
         <v>42434.444444444445</v>
       </c>
@@ -6121,7 +6170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="255">
+    <row r="143" spans="1:4" ht="246.5">
       <c r="A143" s="1">
         <v>42434.572916666664</v>
       </c>
@@ -6135,7 +6184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="195">
+    <row r="144" spans="1:4" ht="174">
       <c r="A144" s="1">
         <v>42434.592361111114</v>
       </c>
@@ -6149,7 +6198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="210">
+    <row r="145" spans="1:4" ht="188.5">
       <c r="A145" s="1">
         <v>42434.677083333336</v>
       </c>
@@ -6163,7 +6212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="270">
+    <row r="146" spans="1:4" ht="246.5">
       <c r="A146" s="1">
         <v>42434.694444444445</v>
       </c>
@@ -6177,7 +6226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="210">
+    <row r="147" spans="1:4" ht="203">
       <c r="A147" s="1">
         <v>42434.706944444442</v>
       </c>
@@ -6191,7 +6240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="210">
+    <row r="148" spans="1:4" ht="188.5">
       <c r="A148" s="1">
         <v>42434.7296180556</v>
       </c>
@@ -6205,7 +6254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="300">
+    <row r="149" spans="1:4" ht="261">
       <c r="A149" s="1">
         <v>42434.732638888891</v>
       </c>
@@ -6219,7 +6268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="210">
+    <row r="150" spans="1:4" ht="203">
       <c r="A150" s="1">
         <v>42434.732638888891</v>
       </c>
@@ -6233,7 +6282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="120">
+    <row r="151" spans="1:4" ht="116">
       <c r="A151" s="1">
         <v>42434.745763888903</v>
       </c>
@@ -6247,7 +6296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="240">
+    <row r="152" spans="1:4" ht="232">
       <c r="A152" s="1">
         <v>42435.665277777778</v>
       </c>
@@ -6261,7 +6310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="255">
+    <row r="153" spans="1:4" ht="246.5">
       <c r="A153" s="1">
         <v>42435.680555555555</v>
       </c>
@@ -6275,7 +6324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="225">
+    <row r="154" spans="1:4" ht="203">
       <c r="A154" s="1">
         <v>42435.808333333334</v>
       </c>
@@ -6289,7 +6338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="390">
+    <row r="155" spans="1:4" ht="377">
       <c r="A155" s="1">
         <v>42435.884722222225</v>
       </c>
@@ -6303,7 +6352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="210">
+    <row r="156" spans="1:4" ht="203">
       <c r="A156" s="1">
         <v>42436.125</v>
       </c>
@@ -6317,7 +6366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="255">
+    <row r="157" spans="1:4" ht="232">
       <c r="A157" s="1">
         <v>42436.422222222223</v>
       </c>
@@ -6331,7 +6380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="330">
+    <row r="158" spans="1:4" ht="304.5">
       <c r="A158" s="1">
         <v>42436.427083333336</v>
       </c>
@@ -6345,7 +6394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="315">
+    <row r="159" spans="1:4" ht="290">
       <c r="A159" s="1">
         <v>42436.592754629601</v>
       </c>
@@ -6359,7 +6408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="240">
+    <row r="160" spans="1:4" ht="217.5">
       <c r="A160" s="1">
         <v>42436.7</v>
       </c>
@@ -6373,7 +6422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="255">
+    <row r="161" spans="1:4" ht="217.5">
       <c r="A161" s="1">
         <v>42437.013888888891</v>
       </c>
@@ -6387,7 +6436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="255">
+    <row r="162" spans="1:4" ht="246.5">
       <c r="A162" s="1">
         <v>42437.017361111109</v>
       </c>
@@ -6401,7 +6450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="150">
+    <row r="163" spans="1:4" ht="145">
       <c r="A163" s="1">
         <v>42437.704861111109</v>
       </c>
@@ -6415,7 +6464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="135">
+    <row r="164" spans="1:4" ht="130.5">
       <c r="A164" s="1">
         <v>42437.81527777778</v>
       </c>
@@ -6429,7 +6478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="300">
+    <row r="165" spans="1:4" ht="275.5">
       <c r="A165" s="1">
         <v>42438.416666666664</v>
       </c>
@@ -6443,7 +6492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="180">
+    <row r="166" spans="1:4" ht="174">
       <c r="A166" s="1">
         <v>42438.488831018498</v>
       </c>
@@ -6457,7 +6506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="240">
+    <row r="167" spans="1:4" ht="217.5">
       <c r="A167" s="1">
         <v>42438.668055555558</v>
       </c>
@@ -6471,7 +6520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="240">
+    <row r="168" spans="1:4" ht="217.5">
       <c r="A168" s="1">
         <v>42438.929166666669</v>
       </c>
@@ -6485,7 +6534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="240">
+    <row r="169" spans="1:4" ht="217.5">
       <c r="A169" s="1">
         <v>42438.973611111112</v>
       </c>
@@ -6499,7 +6548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="330">
+    <row r="170" spans="1:4" ht="319">
       <c r="A170" s="1">
         <v>42439.638888888891</v>
       </c>
@@ -6513,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="150">
+    <row r="171" spans="1:4" ht="145">
       <c r="A171" s="1">
         <v>42439.657638888886</v>
       </c>
@@ -6527,7 +6576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="405">
+    <row r="172" spans="1:4" ht="377">
       <c r="A172" s="1">
         <v>42439.736111111109</v>
       </c>
@@ -6541,7 +6590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="225">
+    <row r="173" spans="1:4" ht="188.5">
       <c r="A173" s="1">
         <v>42440.607638888891</v>
       </c>
@@ -6555,7 +6604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="345">
+    <row r="174" spans="1:4" ht="333.5">
       <c r="A174" s="1">
         <v>42440.786805555559</v>
       </c>
@@ -6569,7 +6618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="270">
+    <row r="175" spans="1:4" ht="261">
       <c r="A175" s="1">
         <v>42441.038194444445</v>
       </c>
@@ -6583,7 +6632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="225">
+    <row r="176" spans="1:4" ht="217.5">
       <c r="A176" s="1">
         <v>42441.041666666664</v>
       </c>
@@ -6597,7 +6646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="255">
+    <row r="177" spans="1:4" ht="232">
       <c r="A177" s="1">
         <v>42441.495833333334</v>
       </c>
@@ -6611,7 +6660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="225">
+    <row r="178" spans="1:4" ht="217.5">
       <c r="A178" s="1">
         <v>42441.677083333336</v>
       </c>
@@ -6625,7 +6674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="240">
+    <row r="179" spans="1:4" ht="232">
       <c r="A179" s="1">
         <v>42441.761805555558</v>
       </c>
@@ -6639,7 +6688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="255">
+    <row r="180" spans="1:4" ht="232">
       <c r="A180" s="1">
         <v>42441.779861111114</v>
       </c>
@@ -6653,7 +6702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="210">
+    <row r="181" spans="1:4" ht="203">
       <c r="A181" s="1">
         <v>42442.193749999999</v>
       </c>
@@ -6667,7 +6716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="270">
+    <row r="182" spans="1:4" ht="246.5">
       <c r="A182" s="1">
         <v>42442.770833333336</v>
       </c>
@@ -6681,7 +6730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="135">
+    <row r="183" spans="1:4" ht="130.5">
       <c r="A183" s="1">
         <v>42442.939583333333</v>
       </c>
@@ -6695,7 +6744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="240">
+    <row r="184" spans="1:4" ht="232">
       <c r="A184" s="1">
         <v>42443.019444444442</v>
       </c>
@@ -6709,7 +6758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="225">
+    <row r="185" spans="1:4" ht="203">
       <c r="A185" s="1">
         <v>42443.474305555559</v>
       </c>
@@ -6723,7 +6772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="270">
+    <row r="186" spans="1:4" ht="232">
       <c r="A186" s="1">
         <v>42443.565972222219</v>
       </c>
@@ -6737,7 +6786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="240">
+    <row r="187" spans="1:4" ht="232">
       <c r="A187" s="1">
         <v>42443.583333333336</v>
       </c>
@@ -6751,7 +6800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="195">
+    <row r="188" spans="1:4" ht="188.5">
       <c r="A188" s="1">
         <v>42443.806944444441</v>
       </c>
@@ -6765,7 +6814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="225">
+    <row r="189" spans="1:4" ht="203">
       <c r="A189" s="1">
         <v>42445.029861111114</v>
       </c>
@@ -6779,7 +6828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="315">
+    <row r="190" spans="1:4" ht="290">
       <c r="A190" s="1">
         <v>42446.645833333336</v>
       </c>
@@ -6793,7 +6842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="240">
+    <row r="191" spans="1:4" ht="217.5">
       <c r="A191" s="1">
         <v>42446.7561921296</v>
       </c>
@@ -6807,7 +6856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="270">
+    <row r="192" spans="1:4" ht="246.5">
       <c r="A192" s="1">
         <v>42446.757615740797</v>
       </c>
@@ -6821,7 +6870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="255">
+    <row r="193" spans="1:4" ht="246.5">
       <c r="A193" s="1">
         <v>42446.894444444442</v>
       </c>
@@ -6835,7 +6884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="375">
+    <row r="194" spans="1:4" ht="362.5">
       <c r="A194" s="1">
         <v>42446.946527777778</v>
       </c>
@@ -6849,7 +6898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="195">
+    <row r="195" spans="1:4" ht="188.5">
       <c r="A195" s="1">
         <v>42447.111805555556</v>
       </c>
@@ -6863,7 +6912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="270">
+    <row r="196" spans="1:4" ht="246.5">
       <c r="A196" s="1">
         <v>42447.736111111109</v>
       </c>
@@ -6877,7 +6926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="195">
+    <row r="197" spans="1:4" ht="188.5">
       <c r="A197" s="1">
         <v>42447.744444444441</v>
       </c>
@@ -6891,7 +6940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="120">
+    <row r="198" spans="1:4" ht="116">
       <c r="A198" s="1">
         <v>42447.772638888899</v>
       </c>
@@ -6905,7 +6954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="240">
+    <row r="199" spans="1:4" ht="217.5">
       <c r="A199" s="1">
         <v>42447.775162037004</v>
       </c>
@@ -6919,7 +6968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="240">
+    <row r="200" spans="1:4" ht="232">
       <c r="A200" s="1">
         <v>42447.854166666664</v>
       </c>
@@ -6933,7 +6982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="285">
+    <row r="201" spans="1:4" ht="275.5">
       <c r="A201" s="1">
         <v>42448.397916666669</v>
       </c>
@@ -6947,7 +6996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="270">
+    <row r="202" spans="1:4" ht="261">
       <c r="A202" s="1">
         <v>42448.559027777781</v>
       </c>
@@ -6961,7 +7010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="360">
+    <row r="203" spans="1:4" ht="333.5">
       <c r="A203" s="1">
         <v>42448.570833333331</v>
       </c>
@@ -6975,7 +7024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="195">
+    <row r="204" spans="1:4" ht="188.5">
       <c r="A204" s="1">
         <v>42448.645833333336</v>
       </c>
@@ -6989,7 +7038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="240">
+    <row r="205" spans="1:4" ht="232">
       <c r="A205" s="1">
         <v>42448.728472222225</v>
       </c>
@@ -7003,7 +7052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="240">
+    <row r="206" spans="1:4" ht="217.5">
       <c r="A206" s="1">
         <v>42449.025694444441</v>
       </c>
@@ -7017,7 +7066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="210">
+    <row r="207" spans="1:4" ht="203">
       <c r="A207" s="1">
         <v>42449.7</v>
       </c>
@@ -7031,7 +7080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="150">
+    <row r="208" spans="1:4" ht="145">
       <c r="A208" s="1">
         <v>42449.711377314801</v>
       </c>
@@ -7045,7 +7094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="240">
+    <row r="209" spans="1:4" ht="217.5">
       <c r="A209" s="1">
         <v>42449.75277777778</v>
       </c>
@@ -7059,7 +7108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="225">
+    <row r="210" spans="1:4" ht="203">
       <c r="A210" s="1">
         <v>42449.794826388897</v>
       </c>
@@ -7073,7 +7122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="225">
+    <row r="211" spans="1:4" ht="217.5">
       <c r="A211" s="1">
         <v>42449.850694444445</v>
       </c>
@@ -7087,7 +7136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="240">
+    <row r="212" spans="1:4" ht="232">
       <c r="A212" s="1">
         <v>42449.878472222219</v>
       </c>
@@ -7101,7 +7150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="285">
+    <row r="213" spans="1:4" ht="261">
       <c r="A213" s="1">
         <v>42449.990717592598</v>
       </c>
@@ -7115,7 +7164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="210">
+    <row r="214" spans="1:4" ht="203">
       <c r="A214" s="1">
         <v>42450.366666666669</v>
       </c>
@@ -7129,7 +7178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="105">
+    <row r="215" spans="1:4" ht="101.5">
       <c r="A215" s="1">
         <v>42450.374699074098</v>
       </c>
@@ -7143,7 +7192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="195">
+    <row r="216" spans="1:4" ht="188.5">
       <c r="A216" s="1">
         <v>42450.392361111109</v>
       </c>
@@ -7157,7 +7206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="285">
+    <row r="217" spans="1:4" ht="261">
       <c r="A217" s="1">
         <v>42450.651388888888</v>
       </c>
@@ -7171,7 +7220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="135">
+    <row r="218" spans="1:4" ht="130.5">
       <c r="A218" s="1">
         <v>42450.720833333333</v>
       </c>
@@ -7185,7 +7234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="345">
+    <row r="219" spans="1:4" ht="304.5">
       <c r="A219" s="1">
         <v>42450.746527777781</v>
       </c>
@@ -7199,7 +7248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="210">
+    <row r="220" spans="1:4" ht="203">
       <c r="A220" s="1">
         <v>42450.922222222202</v>
       </c>
@@ -7213,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="195">
+    <row r="221" spans="1:4" ht="174">
       <c r="A221" s="1">
         <v>42451.446527777778</v>
       </c>
@@ -7227,7 +7276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="240">
+    <row r="222" spans="1:4" ht="217.5">
       <c r="A222" s="1">
         <v>42451.628472222219</v>
       </c>
@@ -7241,7 +7290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="240">
+    <row r="223" spans="1:4" ht="232">
       <c r="A223" s="1">
         <v>42451.686111111114</v>
       </c>
@@ -7255,7 +7304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="300">
+    <row r="224" spans="1:4" ht="261">
       <c r="A224" s="1">
         <v>42451.805555555555</v>
       </c>
@@ -7269,7 +7318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="150">
+    <row r="225" spans="1:4" ht="145">
       <c r="A225" s="1">
         <v>42452.341608796298</v>
       </c>
@@ -7283,7 +7332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="210">
+    <row r="226" spans="1:4" ht="203">
       <c r="A226" s="1">
         <v>42452.427083333336</v>
       </c>
@@ -7297,7 +7346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="240">
+    <row r="227" spans="1:4" ht="217.5">
       <c r="A227" s="1">
         <v>42452.474305555559</v>
       </c>
@@ -7311,7 +7360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="180">
+    <row r="228" spans="1:4" ht="159.5">
       <c r="A228" s="1">
         <v>42453.456990740699</v>
       </c>
@@ -7325,7 +7374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="409.5">
+    <row r="229" spans="1:4" ht="377">
       <c r="A229" s="1">
         <v>42453.81527777778</v>
       </c>
@@ -7339,7 +7388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="405">
+    <row r="230" spans="1:4" ht="348">
       <c r="A230" s="1">
         <v>42454.478472222225</v>
       </c>
@@ -7353,7 +7402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="180">
+    <row r="231" spans="1:4" ht="174">
       <c r="A231" s="1">
         <v>42454.579861111109</v>
       </c>
@@ -7367,7 +7416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="240">
+    <row r="232" spans="1:4" ht="232">
       <c r="A232" s="1">
         <v>42454.594444444447</v>
       </c>
@@ -7381,7 +7430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="270">
+    <row r="233" spans="1:4" ht="261">
       <c r="A233" s="1">
         <v>42454.659722222219</v>
       </c>
@@ -7395,7 +7444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="270">
+    <row r="234" spans="1:4" ht="246.5">
       <c r="A234" s="1">
         <v>42454.71875</v>
       </c>
@@ -7409,7 +7458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="165">
+    <row r="235" spans="1:4" ht="159.5">
       <c r="A235" s="1">
         <v>42455.00277777778</v>
       </c>
@@ -7423,7 +7472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="210">
+    <row r="236" spans="1:4" ht="203">
       <c r="A236" s="1">
         <v>42455.036111111112</v>
       </c>
@@ -7437,7 +7486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="120">
+    <row r="237" spans="1:4" ht="116">
       <c r="A237" s="1">
         <v>42455.440972222219</v>
       </c>
@@ -7451,7 +7500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="330">
+    <row r="238" spans="1:4" ht="304.5">
       <c r="A238" s="1">
         <v>42455.450694444444</v>
       </c>
@@ -7465,7 +7514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="270">
+    <row r="239" spans="1:4" ht="261">
       <c r="A239" s="1">
         <v>42455.482638888891</v>
       </c>
@@ -7479,7 +7528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="390">
+    <row r="240" spans="1:4" ht="362.5">
       <c r="A240" s="1">
         <v>42455.545138888891</v>
       </c>
@@ -7493,7 +7542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="240">
+    <row r="241" spans="1:4" ht="232">
       <c r="A241" s="1">
         <v>42455.579861111109</v>
       </c>
@@ -7507,7 +7556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="210">
+    <row r="242" spans="1:4" ht="203">
       <c r="A242" s="1">
         <v>42455.666666666664</v>
       </c>
@@ -7521,7 +7570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="255">
+    <row r="243" spans="1:4" ht="246.5">
       <c r="A243" s="1">
         <v>42455.690972222219</v>
       </c>
@@ -7535,7 +7584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="195">
+    <row r="244" spans="1:4" ht="174">
       <c r="A244" s="1">
         <v>42455.715636574103</v>
       </c>
@@ -7549,7 +7598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="195">
+    <row r="245" spans="1:4" ht="159.5">
       <c r="A245" s="1">
         <v>42455.736111111109</v>
       </c>
@@ -7563,7 +7612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="270">
+    <row r="246" spans="1:4" ht="246.5">
       <c r="A246" s="1">
         <v>42455.787499999999</v>
       </c>
@@ -7577,7 +7626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="135">
+    <row r="247" spans="1:4" ht="130.5">
       <c r="A247" s="1">
         <v>42455.957638888889</v>
       </c>
@@ -7591,7 +7640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="285">
+    <row r="248" spans="1:4" ht="275.5">
       <c r="A248" s="1">
         <v>42456.002083333333</v>
       </c>
@@ -7605,7 +7654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="225">
+    <row r="249" spans="1:4" ht="217.5">
       <c r="A249" s="1">
         <v>42456.034722222219</v>
       </c>
@@ -7619,7 +7668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="225">
+    <row r="250" spans="1:4" ht="217.5">
       <c r="A250" s="1">
         <v>42456.486111111109</v>
       </c>
@@ -7633,7 +7682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="210">
+    <row r="251" spans="1:4" ht="203">
       <c r="A251" s="1">
         <v>42456.640972222223</v>
       </c>
@@ -7647,7 +7696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="240">
+    <row r="252" spans="1:4" ht="232">
       <c r="A252" s="1">
         <v>42456.708333333336</v>
       </c>
@@ -7661,7 +7710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="225">
+    <row r="253" spans="1:4" ht="217.5">
       <c r="A253" s="1">
         <v>42456.791666666664</v>
       </c>
@@ -7675,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="270">
+    <row r="254" spans="1:4" ht="246.5">
       <c r="A254" s="1">
         <v>42456.947916666664</v>
       </c>
@@ -7689,7 +7738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="240">
+    <row r="255" spans="1:4" ht="232">
       <c r="A255" s="1">
         <v>42457.626388888886</v>
       </c>
@@ -7703,7 +7752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="240">
+    <row r="256" spans="1:4" ht="217.5">
       <c r="A256" s="1">
         <v>42457.677083333336</v>
       </c>
@@ -7717,7 +7766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="255">
+    <row r="257" spans="1:4" ht="246.5">
       <c r="A257" s="1">
         <v>42457.689583333333</v>
       </c>
@@ -7731,7 +7780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="90">
+    <row r="258" spans="1:4" ht="87">
       <c r="A258" s="1">
         <v>42458.635416666664</v>
       </c>
@@ -7745,7 +7794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="135">
+    <row r="259" spans="1:4" ht="130.5">
       <c r="A259" s="1">
         <v>42458.696527777778</v>
       </c>
@@ -7759,7 +7808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="225">
+    <row r="260" spans="1:4" ht="203">
       <c r="A260" s="1">
         <v>42458.997361111098</v>
       </c>
@@ -7773,7 +7822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="240">
+    <row r="261" spans="1:4" ht="217.5">
       <c r="A261" s="1">
         <v>42459.670138888891</v>
       </c>
@@ -7787,7 +7836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="105">
+    <row r="262" spans="1:4" ht="101.5">
       <c r="A262" s="1">
         <v>42460</v>
       </c>
@@ -7801,7 +7850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="135">
+    <row r="263" spans="1:4" ht="130.5">
       <c r="A263" s="1">
         <v>42460.000694444447</v>
       </c>
@@ -7815,7 +7864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="240">
+    <row r="264" spans="1:4" ht="232">
       <c r="A264" s="1">
         <v>42460.385416666664</v>
       </c>
@@ -7829,7 +7878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="285">
+    <row r="265" spans="1:4" ht="275.5">
       <c r="A265" s="1">
         <v>42460.463888888888</v>
       </c>
@@ -7844,14 +7893,26 @@
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="1"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
+      <c r="A266" s="1">
+        <v>42460.463888888888</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="1"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
+      <c r="A267" s="1">
+        <v>42460.463888888888</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="1"/>
